--- a/Multi-taxa_data/MollEchino/Mol_raw/Mol_div_MI.xlsx
+++ b/Multi-taxa_data/MollEchino/Mol_raw/Mol_div_MI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\MollEchino\Mol_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E760D8-A50A-45A7-825B-078629B660A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CEE0E2-C3F7-41DE-8B69-86797D6597DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="119">
   <si>
     <t>PHOTO</t>
   </si>
@@ -86,18 +86,12 @@
     <t>2,5</t>
   </si>
   <si>
-    <t>Polyplacophora</t>
-  </si>
-  <si>
     <t>MI_D2</t>
   </si>
   <si>
     <t>P5061756</t>
   </si>
   <si>
-    <t>Cephalopoda</t>
-  </si>
-  <si>
     <t>P5061759</t>
   </si>
   <si>
@@ -107,19 +101,10 @@
     <t>P5061760</t>
   </si>
   <si>
-    <t>Scaphopoda</t>
-  </si>
-  <si>
     <t>P5061762</t>
   </si>
   <si>
-    <t>Solenogastres</t>
-  </si>
-  <si>
     <t>P5061763</t>
-  </si>
-  <si>
-    <t>Caudofoveata</t>
   </si>
   <si>
     <t>P5061764</t>
@@ -696,23 +681,23 @@
   <dimension ref="A1:M94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -735,9 +720,7 @@
       <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -750,7 +733,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
@@ -767,9 +750,7 @@
       <c r="K2" s="3">
         <v>5</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -782,7 +763,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
@@ -799,9 +780,7 @@
       <c r="K3" s="3">
         <v>2</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -814,7 +793,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>15</v>
@@ -828,25 +807,23 @@
       <c r="K4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>10</v>
@@ -860,13 +837,11 @@
       <c r="K5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -875,10 +850,10 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>10</v>
@@ -892,13 +867,11 @@
       <c r="K6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -907,10 +880,10 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>10</v>
@@ -921,13 +894,11 @@
       <c r="K7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -936,10 +907,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>10</v>
@@ -950,13 +921,11 @@
       <c r="K8" s="3">
         <v>5</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -965,10 +934,10 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>10</v>
@@ -982,13 +951,11 @@
       <c r="K9" s="3">
         <v>3</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -997,10 +964,10 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>10</v>
@@ -1014,7 +981,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -1023,10 +990,10 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>10</v>
@@ -1040,7 +1007,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -1049,10 +1016,10 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>10</v>
@@ -1069,7 +1036,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -1078,10 +1045,10 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>10</v>
@@ -1093,12 +1060,12 @@
         <v>12</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -1107,10 +1074,10 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -1127,7 +1094,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -1136,10 +1103,10 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>10</v>
@@ -1151,12 +1118,12 @@
         <v>12</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -1165,10 +1132,10 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>10</v>
@@ -1185,7 +1152,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1194,10 +1161,10 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>10</v>
@@ -1206,12 +1173,12 @@
         <v>11</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -1220,10 +1187,10 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>10</v>
@@ -1235,12 +1202,12 @@
         <v>12</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -1249,10 +1216,10 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>10</v>
@@ -1260,7 +1227,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1269,10 +1236,10 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>10</v>
@@ -1286,7 +1253,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1295,10 +1262,10 @@
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>10</v>
@@ -1312,7 +1279,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -1321,10 +1288,10 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>10</v>
@@ -1338,7 +1305,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -1347,10 +1314,10 @@
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>10</v>
@@ -1364,7 +1331,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -1373,10 +1340,10 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>10</v>
@@ -1390,19 +1357,19 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>10</v>
@@ -1416,19 +1383,19 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>10</v>
@@ -1437,7 +1404,7 @@
         <v>14</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K26" s="3">
         <v>1.5</v>
@@ -1445,7 +1412,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -1454,10 +1421,10 @@
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>10</v>
@@ -1471,7 +1438,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -1480,10 +1447,10 @@
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>10</v>
@@ -1497,7 +1464,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -1506,10 +1473,10 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>10</v>
@@ -1523,7 +1490,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
@@ -1532,10 +1499,10 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>10</v>
@@ -1549,7 +1516,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -1558,10 +1525,10 @@
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>10</v>
@@ -1570,12 +1537,12 @@
         <v>14</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
@@ -1584,10 +1551,10 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>10</v>
@@ -1596,12 +1563,12 @@
         <v>11</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
@@ -1610,10 +1577,10 @@
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>10</v>
@@ -1627,7 +1594,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
@@ -1636,10 +1603,10 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>10</v>
@@ -1653,7 +1620,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
@@ -1662,10 +1629,10 @@
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>10</v>
@@ -1679,7 +1646,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
@@ -1688,10 +1655,10 @@
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>10</v>
@@ -1705,7 +1672,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
@@ -1714,10 +1681,10 @@
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>10</v>
@@ -1731,7 +1698,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -1740,10 +1707,10 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>10</v>
@@ -1752,12 +1719,12 @@
         <v>11</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -1766,10 +1733,10 @@
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>10</v>
@@ -1786,7 +1753,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -1795,10 +1762,10 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>10</v>
@@ -1812,7 +1779,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -1821,16 +1788,16 @@
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K41" s="3">
         <v>3</v>
@@ -1838,7 +1805,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -1847,10 +1814,10 @@
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>10</v>
@@ -1864,19 +1831,19 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" t="s">
-        <v>123</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>10</v>
@@ -1890,7 +1857,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
@@ -1899,10 +1866,10 @@
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>10</v>
@@ -1916,7 +1883,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
@@ -1925,10 +1892,10 @@
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>10</v>
@@ -1942,7 +1909,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
@@ -1951,10 +1918,10 @@
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>10</v>
@@ -1963,12 +1930,12 @@
         <v>11</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -1977,10 +1944,10 @@
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>10</v>
@@ -1994,7 +1961,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
@@ -2003,10 +1970,10 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>10</v>
@@ -2015,12 +1982,12 @@
         <v>11</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -2029,10 +1996,10 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>10</v>
@@ -2046,7 +2013,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -2055,10 +2022,10 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>10</v>
@@ -2072,7 +2039,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -2081,10 +2048,10 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>10</v>
@@ -2093,12 +2060,12 @@
         <v>11</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -2107,10 +2074,10 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>10</v>
@@ -2124,7 +2091,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -2133,10 +2100,10 @@
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>10</v>
@@ -2145,12 +2112,12 @@
         <v>11</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -2159,10 +2126,10 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>10</v>
@@ -2176,7 +2143,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -2185,10 +2152,10 @@
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>10</v>
@@ -2202,7 +2169,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -2211,10 +2178,10 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>10</v>
@@ -2228,7 +2195,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
@@ -2237,10 +2204,10 @@
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>10</v>
@@ -2254,7 +2221,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -2263,10 +2230,10 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>10</v>
@@ -2280,7 +2247,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -2289,10 +2256,10 @@
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>10</v>
@@ -2306,7 +2273,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -2315,10 +2282,10 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>10</v>
@@ -2327,12 +2294,12 @@
         <v>11</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
@@ -2341,10 +2308,10 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>10</v>
@@ -2358,7 +2325,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
@@ -2367,10 +2334,10 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>10</v>
@@ -2384,7 +2351,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
@@ -2393,10 +2360,10 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>10</v>
@@ -2413,7 +2380,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
@@ -2422,10 +2389,10 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>10</v>
@@ -2442,7 +2409,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
@@ -2451,10 +2418,10 @@
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>10</v>
@@ -2468,7 +2435,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
@@ -2477,10 +2444,10 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>10</v>
@@ -2494,7 +2461,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
@@ -2503,10 +2470,10 @@
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>10</v>
@@ -2520,7 +2487,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
@@ -2529,10 +2496,10 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>10</v>
@@ -2541,12 +2508,12 @@
         <v>14</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
@@ -2555,10 +2522,10 @@
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>10</v>
@@ -2572,7 +2539,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
@@ -2581,10 +2548,10 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>10</v>
@@ -2598,7 +2565,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
@@ -2607,10 +2574,10 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>10</v>
@@ -2624,7 +2591,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
@@ -2633,10 +2600,10 @@
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>10</v>
@@ -2645,12 +2612,12 @@
         <v>11</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
@@ -2659,10 +2626,10 @@
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>10</v>
@@ -2676,7 +2643,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
@@ -2685,10 +2652,10 @@
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>10</v>
@@ -2697,12 +2664,12 @@
         <v>14</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
@@ -2711,10 +2678,10 @@
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>10</v>
@@ -2728,7 +2695,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
@@ -2737,10 +2704,10 @@
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>10</v>
@@ -2754,7 +2721,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -2763,10 +2730,10 @@
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>10</v>
@@ -2780,7 +2747,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -2789,10 +2756,10 @@
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>10</v>
@@ -2809,7 +2776,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -2818,10 +2785,10 @@
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>10</v>
@@ -2829,19 +2796,19 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" t="s">
+        <v>118</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B80" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80" t="s">
-        <v>123</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>10</v>
@@ -2855,7 +2822,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -2864,10 +2831,10 @@
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>10</v>
@@ -2875,7 +2842,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -2884,10 +2851,10 @@
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>10</v>
@@ -2896,12 +2863,12 @@
         <v>11</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -2910,10 +2877,10 @@
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>10</v>
@@ -2927,7 +2894,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -2936,10 +2903,10 @@
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>10</v>
@@ -2953,7 +2920,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -2962,10 +2929,10 @@
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>10</v>
@@ -2979,7 +2946,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -2988,10 +2955,10 @@
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>10</v>
@@ -3005,7 +2972,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -3014,10 +2981,10 @@
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>10</v>
@@ -3034,7 +3001,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -3043,10 +3010,10 @@
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>10</v>
@@ -3060,7 +3027,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -3069,10 +3036,10 @@
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>10</v>
@@ -3086,7 +3053,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -3095,10 +3062,10 @@
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>10</v>
@@ -3112,7 +3079,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -3121,10 +3088,10 @@
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>10</v>
@@ -3133,12 +3100,12 @@
         <v>11</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
@@ -3147,10 +3114,10 @@
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>10</v>
@@ -3164,7 +3131,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
@@ -3173,10 +3140,10 @@
         <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>10</v>
@@ -3190,7 +3157,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
@@ -3199,10 +3166,10 @@
         <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>10</v>

--- a/Multi-taxa_data/MollEchino/Mol_raw/Mol_div_MI.xlsx
+++ b/Multi-taxa_data/MollEchino/Mol_raw/Mol_div_MI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\MollEchino\Mol_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CEE0E2-C3F7-41DE-8B69-86797D6597DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65465672-8571-4E01-A2F9-2D7D5A0F5E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="118">
   <si>
     <t>PHOTO</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>P5061759</t>
-  </si>
-  <si>
-    <t>Monoplacophora</t>
   </si>
   <si>
     <t>P5061760</t>
@@ -680,24 +677,24 @@
   </sheetPr>
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -733,7 +730,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
@@ -763,7 +760,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
@@ -793,7 +790,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>15</v>
@@ -820,7 +817,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>18</v>
@@ -850,7 +847,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>19</v>
@@ -880,10 +877,10 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>10</v>
@@ -907,10 +904,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>10</v>
@@ -934,10 +931,10 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>10</v>
@@ -964,10 +961,10 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>10</v>
@@ -990,10 +987,10 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>10</v>
@@ -1007,19 +1004,19 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>10</v>
@@ -1036,7 +1033,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -1045,10 +1042,10 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>10</v>
@@ -1060,12 +1057,12 @@
         <v>12</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -1074,10 +1071,10 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -1094,7 +1091,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -1103,10 +1100,10 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>10</v>
@@ -1118,12 +1115,12 @@
         <v>12</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -1132,10 +1129,10 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>10</v>
@@ -1152,7 +1149,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1161,24 +1158,24 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -1187,10 +1184,10 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>10</v>
@@ -1202,12 +1199,12 @@
         <v>12</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -1216,10 +1213,10 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>10</v>
@@ -1227,7 +1224,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1236,10 +1233,10 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>10</v>
@@ -1253,19 +1250,19 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>10</v>
@@ -1279,7 +1276,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -1288,10 +1285,10 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>10</v>
@@ -1305,7 +1302,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -1314,10 +1311,10 @@
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>10</v>
@@ -1331,7 +1328,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -1340,10 +1337,10 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>10</v>
@@ -1357,7 +1354,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1366,10 +1363,10 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>10</v>
@@ -1383,7 +1380,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -1392,10 +1389,10 @@
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>10</v>
@@ -1404,7 +1401,7 @@
         <v>14</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K26" s="3">
         <v>1.5</v>
@@ -1412,7 +1409,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -1421,10 +1418,10 @@
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>10</v>
@@ -1438,7 +1435,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -1447,10 +1444,10 @@
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>10</v>
@@ -1464,7 +1461,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -1473,10 +1470,10 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>10</v>
@@ -1490,7 +1487,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
@@ -1499,10 +1496,10 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>10</v>
@@ -1516,7 +1513,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -1525,10 +1522,10 @@
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>10</v>
@@ -1537,12 +1534,12 @@
         <v>14</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
@@ -1551,10 +1548,10 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>10</v>
@@ -1563,12 +1560,12 @@
         <v>11</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
@@ -1577,10 +1574,10 @@
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>10</v>
@@ -1594,7 +1591,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
@@ -1603,10 +1600,10 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>10</v>
@@ -1620,7 +1617,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
@@ -1629,10 +1626,10 @@
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>10</v>
@@ -1646,7 +1643,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
@@ -1655,10 +1652,10 @@
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>10</v>
@@ -1672,7 +1669,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
@@ -1681,10 +1678,10 @@
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>10</v>
@@ -1698,7 +1695,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -1707,10 +1704,10 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>10</v>
@@ -1719,24 +1716,24 @@
         <v>11</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>10</v>
@@ -1753,7 +1750,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -1762,10 +1759,10 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>10</v>
@@ -1779,7 +1776,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -1788,16 +1785,16 @@
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>20</v>
+      <c r="G41" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K41" s="3">
         <v>3</v>
@@ -1805,7 +1802,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -1814,10 +1811,10 @@
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>10</v>
@@ -1831,7 +1828,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -1840,10 +1837,10 @@
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>10</v>
@@ -1857,7 +1854,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
@@ -1866,10 +1863,10 @@
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>10</v>
@@ -1883,7 +1880,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
@@ -1892,10 +1889,10 @@
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>10</v>
@@ -1909,7 +1906,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
@@ -1918,10 +1915,10 @@
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>10</v>
@@ -1930,12 +1927,12 @@
         <v>11</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -1944,10 +1941,10 @@
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>10</v>
@@ -1961,7 +1958,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
@@ -1970,10 +1967,10 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>10</v>
@@ -1982,12 +1979,12 @@
         <v>11</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -1996,10 +1993,10 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>10</v>
@@ -2013,7 +2010,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -2022,10 +2019,10 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>10</v>
@@ -2039,7 +2036,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -2048,10 +2045,10 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>10</v>
@@ -2060,12 +2057,12 @@
         <v>11</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -2074,10 +2071,10 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>10</v>
@@ -2091,7 +2088,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -2100,10 +2097,10 @@
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>10</v>
@@ -2112,12 +2109,12 @@
         <v>11</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -2126,10 +2123,10 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>10</v>
@@ -2143,7 +2140,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -2152,10 +2149,10 @@
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>10</v>
@@ -2169,7 +2166,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -2178,10 +2175,10 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>10</v>
@@ -2195,7 +2192,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
@@ -2204,10 +2201,10 @@
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>10</v>
@@ -2221,7 +2218,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -2230,10 +2227,10 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>10</v>
@@ -2247,7 +2244,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -2256,10 +2253,10 @@
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>10</v>
@@ -2273,7 +2270,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -2282,10 +2279,10 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>10</v>
@@ -2294,12 +2291,12 @@
         <v>11</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
@@ -2308,10 +2305,10 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>10</v>
@@ -2325,7 +2322,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
@@ -2334,10 +2331,10 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>10</v>
@@ -2351,7 +2348,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
@@ -2360,10 +2357,10 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>10</v>
@@ -2380,7 +2377,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
@@ -2389,10 +2386,10 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>10</v>
@@ -2409,7 +2406,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
@@ -2418,10 +2415,10 @@
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>10</v>
@@ -2435,7 +2432,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
@@ -2444,10 +2441,10 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>10</v>
@@ -2461,7 +2458,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
@@ -2470,10 +2467,10 @@
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>10</v>
@@ -2487,7 +2484,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
@@ -2496,10 +2493,10 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>10</v>
@@ -2508,12 +2505,12 @@
         <v>14</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
@@ -2522,10 +2519,10 @@
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>10</v>
@@ -2539,7 +2536,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
@@ -2548,10 +2545,10 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>10</v>
@@ -2565,7 +2562,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
@@ -2574,10 +2571,10 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>10</v>
@@ -2591,7 +2588,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
@@ -2600,10 +2597,10 @@
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>10</v>
@@ -2612,12 +2609,12 @@
         <v>11</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
@@ -2626,10 +2623,10 @@
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>10</v>
@@ -2643,7 +2640,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
@@ -2652,10 +2649,10 @@
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>10</v>
@@ -2664,24 +2661,24 @@
         <v>14</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" t="s">
+        <v>117</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="B75" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" t="s">
-        <v>118</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>10</v>
@@ -2695,19 +2692,19 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" t="s">
+        <v>117</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="B76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" t="s">
-        <v>118</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>10</v>
@@ -2721,7 +2718,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -2730,10 +2727,10 @@
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>10</v>
@@ -2747,7 +2744,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -2756,10 +2753,10 @@
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>10</v>
@@ -2776,7 +2773,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -2785,10 +2782,10 @@
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>10</v>
@@ -2796,7 +2793,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -2805,10 +2802,10 @@
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>10</v>
@@ -2822,7 +2819,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -2831,10 +2828,10 @@
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>10</v>
@@ -2842,7 +2839,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -2851,10 +2848,10 @@
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>10</v>
@@ -2863,12 +2860,12 @@
         <v>11</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -2877,10 +2874,10 @@
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>10</v>
@@ -2894,7 +2891,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -2903,10 +2900,10 @@
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>10</v>
@@ -2920,7 +2917,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -2929,10 +2926,10 @@
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>10</v>
@@ -2946,7 +2943,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -2955,10 +2952,10 @@
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>10</v>
@@ -2972,7 +2969,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -2981,10 +2978,10 @@
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>10</v>
@@ -3001,7 +2998,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -3010,10 +3007,10 @@
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>10</v>
@@ -3027,7 +3024,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -3036,10 +3033,10 @@
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>10</v>
@@ -3053,7 +3050,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -3062,10 +3059,10 @@
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>10</v>
@@ -3079,7 +3076,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -3088,10 +3085,10 @@
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>10</v>
@@ -3100,12 +3097,12 @@
         <v>11</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
@@ -3114,10 +3111,10 @@
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>10</v>
@@ -3131,7 +3128,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
@@ -3140,10 +3137,10 @@
         <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>10</v>
@@ -3157,7 +3154,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
@@ -3166,10 +3163,10 @@
         <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>10</v>

--- a/Multi-taxa_data/MollEchino/Mol_raw/Mol_div_MI.xlsx
+++ b/Multi-taxa_data/MollEchino/Mol_raw/Mol_div_MI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\MollEchino\Mol_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65465672-8571-4E01-A2F9-2D7D5A0F5E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F07D2B-8884-4062-BC77-97DB1CA15FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="120">
   <si>
     <t>PHOTO</t>
   </si>
@@ -387,6 +387,12 @@
   </si>
   <si>
     <t>MI_S</t>
+  </si>
+  <si>
+    <t>Deep</t>
+  </si>
+  <si>
+    <t>Shallow</t>
   </si>
 </sst>
 </file>
@@ -677,8 +683,8 @@
   </sheetPr>
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -727,7 +733,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
         <v>116</v>
@@ -757,7 +763,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
         <v>116</v>
@@ -787,7 +793,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
         <v>116</v>
@@ -814,7 +820,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
         <v>116</v>
@@ -844,7 +850,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
         <v>116</v>
@@ -874,7 +880,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
         <v>116</v>
@@ -901,7 +907,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
         <v>116</v>
@@ -928,7 +934,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
         <v>116</v>
@@ -958,7 +964,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
         <v>116</v>
@@ -984,7 +990,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
         <v>116</v>
@@ -1010,7 +1016,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
         <v>116</v>
@@ -1039,7 +1045,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
         <v>116</v>
@@ -1068,7 +1074,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
         <v>116</v>
@@ -1097,7 +1103,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="D15" t="s">
         <v>116</v>
@@ -1126,7 +1132,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="D16" t="s">
         <v>116</v>
@@ -1155,7 +1161,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
         <v>116</v>
@@ -1181,7 +1187,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
         <v>116</v>
@@ -1210,7 +1216,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="D19" t="s">
         <v>116</v>
@@ -1230,7 +1236,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
         <v>116</v>
@@ -1256,7 +1262,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
         <v>117</v>
@@ -1282,7 +1288,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D22" t="s">
         <v>117</v>
@@ -1308,7 +1314,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D23" t="s">
         <v>117</v>
@@ -1334,7 +1340,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
         <v>117</v>
@@ -1360,7 +1366,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
         <v>117</v>
@@ -1386,7 +1392,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s">
         <v>117</v>
@@ -1415,7 +1421,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
         <v>117</v>
@@ -1441,7 +1447,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
         <v>117</v>
@@ -1467,7 +1473,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D29" t="s">
         <v>117</v>
@@ -1493,7 +1499,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s">
         <v>117</v>
@@ -1519,7 +1525,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D31" t="s">
         <v>117</v>
@@ -1545,7 +1551,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D32" t="s">
         <v>117</v>
@@ -1571,7 +1577,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D33" t="s">
         <v>117</v>
@@ -1597,7 +1603,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
         <v>117</v>
@@ -1623,7 +1629,7 @@
         <v>7</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D35" t="s">
         <v>117</v>
@@ -1649,7 +1655,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s">
         <v>117</v>
@@ -1675,7 +1681,7 @@
         <v>7</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
         <v>117</v>
@@ -1701,7 +1707,7 @@
         <v>7</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D38" t="s">
         <v>117</v>
@@ -1727,7 +1733,7 @@
         <v>7</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D39" t="s">
         <v>117</v>
@@ -1756,7 +1762,7 @@
         <v>7</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D40" t="s">
         <v>117</v>
@@ -1782,7 +1788,7 @@
         <v>7</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D41" t="s">
         <v>117</v>
@@ -1808,7 +1814,7 @@
         <v>7</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D42" t="s">
         <v>117</v>
@@ -1834,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D43" t="s">
         <v>117</v>
@@ -1860,7 +1866,7 @@
         <v>7</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D44" t="s">
         <v>117</v>
@@ -1886,7 +1892,7 @@
         <v>7</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D45" t="s">
         <v>117</v>
@@ -1912,7 +1918,7 @@
         <v>7</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D46" t="s">
         <v>117</v>
@@ -1938,7 +1944,7 @@
         <v>7</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D47" t="s">
         <v>117</v>
@@ -1964,7 +1970,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D48" t="s">
         <v>117</v>
@@ -1990,7 +1996,7 @@
         <v>7</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D49" t="s">
         <v>117</v>
@@ -2016,7 +2022,7 @@
         <v>7</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D50" t="s">
         <v>117</v>
@@ -2042,7 +2048,7 @@
         <v>7</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D51" t="s">
         <v>117</v>
@@ -2068,7 +2074,7 @@
         <v>7</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D52" t="s">
         <v>117</v>
@@ -2094,7 +2100,7 @@
         <v>7</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D53" t="s">
         <v>117</v>
@@ -2120,7 +2126,7 @@
         <v>7</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D54" t="s">
         <v>117</v>
@@ -2146,7 +2152,7 @@
         <v>7</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D55" t="s">
         <v>117</v>
@@ -2172,7 +2178,7 @@
         <v>7</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D56" t="s">
         <v>117</v>
@@ -2198,7 +2204,7 @@
         <v>7</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D57" t="s">
         <v>117</v>
@@ -2224,7 +2230,7 @@
         <v>7</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D58" t="s">
         <v>117</v>
@@ -2250,7 +2256,7 @@
         <v>7</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D59" t="s">
         <v>117</v>
@@ -2276,7 +2282,7 @@
         <v>7</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D60" t="s">
         <v>117</v>
@@ -2302,7 +2308,7 @@
         <v>7</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D61" t="s">
         <v>117</v>
@@ -2328,7 +2334,7 @@
         <v>7</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D62" t="s">
         <v>117</v>
@@ -2354,7 +2360,7 @@
         <v>7</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D63" t="s">
         <v>117</v>
@@ -2383,7 +2389,7 @@
         <v>7</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D64" t="s">
         <v>117</v>
@@ -2412,7 +2418,7 @@
         <v>7</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2438,7 +2444,7 @@
         <v>7</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2464,7 +2470,7 @@
         <v>7</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D67" t="s">
         <v>117</v>
@@ -2490,7 +2496,7 @@
         <v>7</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D68" t="s">
         <v>117</v>
@@ -2516,7 +2522,7 @@
         <v>7</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D69" t="s">
         <v>117</v>
@@ -2542,7 +2548,7 @@
         <v>7</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D70" t="s">
         <v>117</v>
@@ -2568,7 +2574,7 @@
         <v>7</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D71" t="s">
         <v>117</v>
@@ -2594,7 +2600,7 @@
         <v>7</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D72" t="s">
         <v>117</v>
@@ -2620,7 +2626,7 @@
         <v>7</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D73" t="s">
         <v>117</v>
@@ -2646,7 +2652,7 @@
         <v>7</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D74" t="s">
         <v>117</v>
@@ -2672,7 +2678,7 @@
         <v>7</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D75" t="s">
         <v>117</v>
@@ -2698,7 +2704,7 @@
         <v>7</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D76" t="s">
         <v>117</v>
@@ -2724,7 +2730,7 @@
         <v>7</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D77" t="s">
         <v>117</v>
@@ -2750,7 +2756,7 @@
         <v>7</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D78" t="s">
         <v>117</v>
@@ -2779,7 +2785,7 @@
         <v>7</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D79" t="s">
         <v>117</v>
@@ -2799,7 +2805,7 @@
         <v>7</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D80" t="s">
         <v>117</v>
@@ -2825,7 +2831,7 @@
         <v>7</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D81" t="s">
         <v>117</v>
@@ -2845,7 +2851,7 @@
         <v>7</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D82" t="s">
         <v>117</v>
@@ -2871,7 +2877,7 @@
         <v>7</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D83" t="s">
         <v>117</v>
@@ -2897,7 +2903,7 @@
         <v>7</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D84" t="s">
         <v>117</v>
@@ -2923,7 +2929,7 @@
         <v>7</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D85" t="s">
         <v>117</v>
@@ -2949,7 +2955,7 @@
         <v>7</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D86" t="s">
         <v>117</v>
@@ -2975,7 +2981,7 @@
         <v>7</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D87" t="s">
         <v>117</v>
@@ -3004,7 +3010,7 @@
         <v>7</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D88" t="s">
         <v>117</v>
@@ -3030,7 +3036,7 @@
         <v>7</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D89" t="s">
         <v>117</v>
@@ -3056,7 +3062,7 @@
         <v>7</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D90" t="s">
         <v>117</v>
@@ -3082,7 +3088,7 @@
         <v>7</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D91" t="s">
         <v>117</v>
@@ -3108,7 +3114,7 @@
         <v>7</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D92" t="s">
         <v>117</v>
@@ -3134,7 +3140,7 @@
         <v>7</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D93" t="s">
         <v>117</v>
@@ -3160,7 +3166,7 @@
         <v>7</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D94" t="s">
         <v>117</v>

--- a/Multi-taxa_data/MollEchino/Mol_raw/Mol_div_MI.xlsx
+++ b/Multi-taxa_data/MollEchino/Mol_raw/Mol_div_MI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\MollEchino\Mol_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F07D2B-8884-4062-BC77-97DB1CA15FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D674FC6B-618E-46B1-A672-F29E3DB134FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="123">
   <si>
     <t>PHOTO</t>
   </si>
@@ -393,6 +393,15 @@
   </si>
   <si>
     <t>Shallow</t>
+  </si>
+  <si>
+    <t>AA-EJ</t>
+  </si>
+  <si>
+    <t>GOPR2456</t>
+  </si>
+  <si>
+    <t>GOPR2478</t>
   </si>
 </sst>
 </file>
@@ -681,15 +690,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>112</v>
       </c>
@@ -725,7 +734,7 @@
       </c>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -755,7 +764,7 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -785,7 +794,7 @@
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -812,7 +821,7 @@
       </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -842,7 +851,7 @@
       </c>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -872,7 +881,7 @@
       </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -899,7 +908,7 @@
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -926,7 +935,7 @@
       </c>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -956,7 +965,7 @@
       </c>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -982,7 +991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1008,7 +1017,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
@@ -1037,7 +1046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
@@ -1066,7 +1075,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -1095,7 +1104,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
@@ -1124,7 +1133,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1153,7 +1162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
@@ -1179,7 +1188,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -1208,7 +1217,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
@@ -1228,7 +1237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -1254,7 +1263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
@@ -1280,7 +1289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
@@ -1306,7 +1315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
@@ -1332,7 +1341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>37</v>
       </c>
@@ -1358,7 +1367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>37</v>
       </c>
@@ -1384,7 +1393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>37</v>
       </c>
@@ -1413,7 +1422,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>37</v>
       </c>
@@ -1439,7 +1448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>37</v>
       </c>
@@ -1465,7 +1474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>37</v>
       </c>
@@ -1491,7 +1500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
@@ -1517,7 +1526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>37</v>
       </c>
@@ -1543,7 +1552,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -1569,7 +1578,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
@@ -1595,7 +1604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
@@ -1621,7 +1630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
@@ -1647,7 +1656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
@@ -1673,7 +1682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
@@ -1699,7 +1708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -1725,7 +1734,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>56</v>
       </c>
@@ -1754,7 +1763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>56</v>
       </c>
@@ -1780,7 +1789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>56</v>
       </c>
@@ -1806,7 +1815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>56</v>
       </c>
@@ -1832,7 +1841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>56</v>
       </c>
@@ -1858,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>56</v>
       </c>
@@ -1884,7 +1893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>56</v>
       </c>
@@ -1910,7 +1919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>56</v>
       </c>
@@ -1936,7 +1945,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>56</v>
       </c>
@@ -1962,7 +1971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>56</v>
       </c>
@@ -1988,7 +1997,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
@@ -2014,7 +2023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>56</v>
       </c>
@@ -2040,7 +2049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
@@ -2066,7 +2075,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>56</v>
       </c>
@@ -2092,7 +2101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>56</v>
       </c>
@@ -2118,7 +2127,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>56</v>
       </c>
@@ -2144,7 +2153,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>56</v>
       </c>
@@ -2170,7 +2179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>56</v>
       </c>
@@ -2196,7 +2205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
@@ -2222,7 +2231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>56</v>
       </c>
@@ -2248,7 +2257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>56</v>
       </c>
@@ -2274,7 +2283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>56</v>
       </c>
@@ -2300,7 +2309,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>56</v>
       </c>
@@ -2326,7 +2335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>56</v>
       </c>
@@ -2352,7 +2361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>56</v>
       </c>
@@ -2381,7 +2390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>56</v>
       </c>
@@ -2410,7 +2419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>56</v>
       </c>
@@ -2436,7 +2445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>56</v>
       </c>
@@ -2462,7 +2471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>56</v>
       </c>
@@ -2488,7 +2497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>56</v>
       </c>
@@ -2514,7 +2523,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>56</v>
       </c>
@@ -2540,7 +2549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>56</v>
       </c>
@@ -2566,7 +2575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>56</v>
       </c>
@@ -2592,7 +2601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>56</v>
       </c>
@@ -2618,7 +2627,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>56</v>
       </c>
@@ -2644,7 +2653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>56</v>
       </c>
@@ -2670,7 +2679,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>90</v>
       </c>
@@ -2696,7 +2705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>90</v>
       </c>
@@ -2722,7 +2731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>90</v>
       </c>
@@ -2748,7 +2757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>90</v>
       </c>
@@ -2768,16 +2777,16 @@
         <v>10</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="K78" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>90</v>
       </c>
@@ -2797,7 +2806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>90</v>
       </c>
@@ -2823,7 +2832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>90</v>
       </c>
@@ -2843,7 +2852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>90</v>
       </c>
@@ -2869,7 +2878,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>90</v>
       </c>
@@ -2895,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>90</v>
       </c>
@@ -2921,7 +2930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>90</v>
       </c>
@@ -2947,7 +2956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>90</v>
       </c>
@@ -2973,7 +2982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>90</v>
       </c>
@@ -3002,7 +3011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>90</v>
       </c>
@@ -3028,7 +3037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>90</v>
       </c>
@@ -3054,7 +3063,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>90</v>
       </c>
@@ -3080,7 +3089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>90</v>
       </c>
@@ -3106,7 +3115,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>90</v>
       </c>
@@ -3132,7 +3141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>90</v>
       </c>
@@ -3158,7 +3167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>90</v>
       </c>
@@ -3176,6 +3185,64 @@
       </c>
       <c r="F94" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D95" t="s">
+        <v>117</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J95" t="s">
+        <v>12</v>
+      </c>
+      <c r="K95" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D96" t="s">
+        <v>117</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J96" t="s">
+        <v>12</v>
+      </c>
+      <c r="K96" s="3">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/Multi-taxa_data/MollEchino/Mol_raw/Mol_div_MI.xlsx
+++ b/Multi-taxa_data/MollEchino/Mol_raw/Mol_div_MI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\MollEchino\Mol_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D674FC6B-618E-46B1-A672-F29E3DB134FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B45B23-41D6-449D-A7F6-4B7F19D8E10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="120">
   <si>
     <t>PHOTO</t>
   </si>
@@ -83,9 +83,6 @@
     <t>P5061754</t>
   </si>
   <si>
-    <t>2,5</t>
-  </si>
-  <si>
     <t>MI_D2</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>P5061778-79</t>
   </si>
   <si>
-    <t>1,5</t>
-  </si>
-  <si>
     <t>P5061780-81</t>
   </si>
   <si>
@@ -177,9 +171,6 @@
   </si>
   <si>
     <t>P5061808</t>
-  </si>
-  <si>
-    <t>4,5</t>
   </si>
   <si>
     <t>P5061809</t>
@@ -692,24 +683,24 @@
   </sheetPr>
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -742,10 +733,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
@@ -772,10 +763,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
@@ -802,10 +793,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>15</v>
@@ -816,26 +807,26 @@
       <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>16</v>
+      <c r="K4" s="3">
+        <v>2.5</v>
       </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>10</v>
@@ -846,26 +837,26 @@
       <c r="J5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>16</v>
+      <c r="K5" s="3">
+        <v>2.5</v>
       </c>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>10</v>
@@ -876,26 +867,26 @@
       <c r="J6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>16</v>
+      <c r="K6" s="3">
+        <v>2.5</v>
       </c>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>10</v>
@@ -903,26 +894,26 @@
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>16</v>
+      <c r="K7" s="3">
+        <v>2.5</v>
       </c>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>10</v>
@@ -937,19 +928,19 @@
     </row>
     <row r="9" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>10</v>
@@ -967,19 +958,19 @@
     </row>
     <row r="10" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>10</v>
@@ -993,19 +984,19 @@
     </row>
     <row r="11" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>10</v>
@@ -1013,25 +1004,25 @@
       <c r="G11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>16</v>
+      <c r="K11" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>10</v>
@@ -1048,19 +1039,19 @@
     </row>
     <row r="13" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>10</v>
@@ -1072,24 +1063,24 @@
         <v>12</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -1100,25 +1091,25 @@
       <c r="J14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>16</v>
+      <c r="K14" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>10</v>
@@ -1130,24 +1121,24 @@
         <v>12</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>10</v>
@@ -1164,19 +1155,19 @@
     </row>
     <row r="17" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>10</v>
@@ -1184,25 +1175,25 @@
       <c r="G17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>33</v>
+      <c r="K17" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>10</v>
@@ -1213,25 +1204,25 @@
       <c r="J18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>33</v>
+      <c r="K18" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>10</v>
@@ -1239,19 +1230,19 @@
     </row>
     <row r="20" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>10</v>
@@ -1265,19 +1256,19 @@
     </row>
     <row r="21" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>10</v>
@@ -1291,19 +1282,19 @@
     </row>
     <row r="22" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>10</v>
@@ -1317,19 +1308,19 @@
     </row>
     <row r="23" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>10</v>
@@ -1343,19 +1334,19 @@
     </row>
     <row r="24" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>10</v>
@@ -1369,19 +1360,19 @@
     </row>
     <row r="25" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>10</v>
@@ -1395,19 +1386,19 @@
     </row>
     <row r="26" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>10</v>
@@ -1416,7 +1407,7 @@
         <v>14</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K26" s="3">
         <v>1.5</v>
@@ -1424,19 +1415,19 @@
     </row>
     <row r="27" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>10</v>
@@ -1450,19 +1441,19 @@
     </row>
     <row r="28" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>10</v>
@@ -1476,19 +1467,19 @@
     </row>
     <row r="29" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>10</v>
@@ -1502,19 +1493,19 @@
     </row>
     <row r="30" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>10</v>
@@ -1528,19 +1519,19 @@
     </row>
     <row r="31" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>10</v>
@@ -1548,25 +1539,25 @@
       <c r="G31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K31" s="3" t="s">
-        <v>48</v>
+      <c r="K31" s="3">
+        <v>4.5</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>10</v>
@@ -1574,25 +1565,25 @@
       <c r="G32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>33</v>
+      <c r="K32" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>10</v>
@@ -1606,19 +1597,19 @@
     </row>
     <row r="34" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>10</v>
@@ -1632,19 +1623,19 @@
     </row>
     <row r="35" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>10</v>
@@ -1658,19 +1649,19 @@
     </row>
     <row r="36" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>10</v>
@@ -1684,19 +1675,19 @@
     </row>
     <row r="37" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D37" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>10</v>
@@ -1710,19 +1701,19 @@
     </row>
     <row r="38" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>10</v>
@@ -1730,25 +1721,25 @@
       <c r="G38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="3" t="s">
-        <v>33</v>
+      <c r="K38" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D39" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>10</v>
@@ -1765,19 +1756,19 @@
     </row>
     <row r="40" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D40" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>10</v>
@@ -1791,19 +1782,19 @@
     </row>
     <row r="41" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41" t="s">
-        <v>117</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>10</v>
@@ -1817,19 +1808,19 @@
     </row>
     <row r="42" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D42" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>10</v>
@@ -1843,19 +1834,19 @@
     </row>
     <row r="43" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D43" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>10</v>
@@ -1869,19 +1860,19 @@
     </row>
     <row r="44" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>10</v>
@@ -1889,25 +1880,25 @@
       <c r="G44" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>16</v>
+      <c r="K44" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D45" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>10</v>
@@ -1921,19 +1912,19 @@
     </row>
     <row r="46" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>10</v>
@@ -1941,25 +1932,25 @@
       <c r="G46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>33</v>
+      <c r="K46" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>10</v>
@@ -1973,19 +1964,19 @@
     </row>
     <row r="48" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D48" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>10</v>
@@ -1993,25 +1984,25 @@
       <c r="G48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>33</v>
+      <c r="K48" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D49" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>10</v>
@@ -2019,25 +2010,25 @@
       <c r="G49" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>16</v>
+      <c r="K49" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D50" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>10</v>
@@ -2045,25 +2036,25 @@
       <c r="G50" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K50" s="3" t="s">
-        <v>16</v>
+      <c r="K50" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D51" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>10</v>
@@ -2071,25 +2062,25 @@
       <c r="G51" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K51" s="3" t="s">
-        <v>33</v>
+      <c r="K51" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D52" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>10</v>
@@ -2103,19 +2094,19 @@
     </row>
     <row r="53" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>10</v>
@@ -2123,25 +2114,25 @@
       <c r="G53" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K53" s="3" t="s">
-        <v>33</v>
+      <c r="K53" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D54" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>10</v>
@@ -2149,25 +2140,25 @@
       <c r="G54" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>16</v>
+      <c r="K54" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D55" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>10</v>
@@ -2181,19 +2172,19 @@
     </row>
     <row r="56" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D56" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>10</v>
@@ -2207,19 +2198,19 @@
     </row>
     <row r="57" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D57" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>10</v>
@@ -2233,19 +2224,19 @@
     </row>
     <row r="58" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D58" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>10</v>
@@ -2259,19 +2250,19 @@
     </row>
     <row r="59" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D59" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>10</v>
@@ -2285,19 +2276,19 @@
     </row>
     <row r="60" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D60" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>10</v>
@@ -2305,25 +2296,25 @@
       <c r="G60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>33</v>
+      <c r="K60" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D61" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>10</v>
@@ -2337,19 +2328,19 @@
     </row>
     <row r="62" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D62" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>10</v>
@@ -2363,19 +2354,19 @@
     </row>
     <row r="63" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D63" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>10</v>
@@ -2392,19 +2383,19 @@
     </row>
     <row r="64" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D64" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>10</v>
@@ -2421,19 +2412,19 @@
     </row>
     <row r="65" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D65" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>10</v>
@@ -2447,19 +2438,19 @@
     </row>
     <row r="66" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D66" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>10</v>
@@ -2473,19 +2464,19 @@
     </row>
     <row r="67" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D67" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>10</v>
@@ -2499,19 +2490,19 @@
     </row>
     <row r="68" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D68" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>10</v>
@@ -2519,25 +2510,25 @@
       <c r="G68" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K68" s="3" t="s">
-        <v>33</v>
+      <c r="K68" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D69" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>10</v>
@@ -2545,25 +2536,25 @@
       <c r="G69" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K69" s="3" t="s">
-        <v>16</v>
+      <c r="K69" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D70" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>10</v>
@@ -2577,19 +2568,19 @@
     </row>
     <row r="71" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D71" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>10</v>
@@ -2603,19 +2594,19 @@
     </row>
     <row r="72" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D72" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>10</v>
@@ -2623,25 +2614,25 @@
       <c r="G72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>48</v>
+      <c r="K72" s="3">
+        <v>4.5</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D73" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>10</v>
@@ -2655,19 +2646,19 @@
     </row>
     <row r="74" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D74" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>10</v>
@@ -2675,25 +2666,25 @@
       <c r="G74" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K74" s="3" t="s">
-        <v>33</v>
+      <c r="K74" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D75" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>10</v>
@@ -2707,19 +2698,19 @@
     </row>
     <row r="76" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D76" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>10</v>
@@ -2733,19 +2724,19 @@
     </row>
     <row r="77" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D77" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>10</v>
@@ -2759,19 +2750,19 @@
     </row>
     <row r="78" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D78" t="s">
+        <v>114</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B78" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D78" t="s">
-        <v>117</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>10</v>
@@ -2780,7 +2771,7 @@
         <v>14</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K78" s="3">
         <v>1</v>
@@ -2788,19 +2779,19 @@
     </row>
     <row r="79" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D79" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>10</v>
@@ -2808,19 +2799,19 @@
     </row>
     <row r="80" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D80" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>10</v>
@@ -2834,19 +2825,19 @@
     </row>
     <row r="81" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D81" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>10</v>
@@ -2854,19 +2845,19 @@
     </row>
     <row r="82" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D82" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>10</v>
@@ -2874,25 +2865,25 @@
       <c r="G82" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K82" s="3" t="s">
-        <v>33</v>
+      <c r="K82" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D83" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>10</v>
@@ -2906,19 +2897,19 @@
     </row>
     <row r="84" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>10</v>
@@ -2932,19 +2923,19 @@
     </row>
     <row r="85" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D85" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>10</v>
@@ -2958,19 +2949,19 @@
     </row>
     <row r="86" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D86" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>10</v>
@@ -2984,19 +2975,19 @@
     </row>
     <row r="87" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D87" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>10</v>
@@ -3013,19 +3004,19 @@
     </row>
     <row r="88" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D88" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>10</v>
@@ -3039,19 +3030,19 @@
     </row>
     <row r="89" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D89" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>10</v>
@@ -3065,19 +3056,19 @@
     </row>
     <row r="90" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D90" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>10</v>
@@ -3091,19 +3082,19 @@
     </row>
     <row r="91" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D91" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>10</v>
@@ -3111,25 +3102,25 @@
       <c r="G91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>33</v>
+      <c r="K91" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D92" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>10</v>
@@ -3143,19 +3134,19 @@
     </row>
     <row r="93" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D93" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>10</v>
@@ -3169,19 +3160,19 @@
     </row>
     <row r="94" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D94" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>10</v>
@@ -3189,22 +3180,22 @@
     </row>
     <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D95" t="s">
+        <v>114</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>11</v>
@@ -3218,22 +3209,22 @@
     </row>
     <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
       </c>
       <c r="C96" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D96" t="s">
+        <v>114</v>
+      </c>
+      <c r="E96" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D96" t="s">
+      <c r="F96" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>11</v>
